--- a/_misc/gradient_descent.xlsx
+++ b/_misc/gradient_descent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliver/Sciebo/___LS MÜLLER/LEHRE/Lehrmaterial/Methoden der Data Science/Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliver/Documents/Git/vhbprodok_datascience/_misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B64FA6-C0BF-C94A-AE38-BDCFA0CDE46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DEE031-87C6-3548-BB89-43B00739DCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39540" yWindow="-5520" windowWidth="34820" windowHeight="23980" xr2:uid="{63849087-0FE2-AF4B-ACB7-CB07C279593B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{63849087-0FE2-AF4B-ACB7-CB07C279593B}"/>
   </bookViews>
   <sheets>
     <sheet name="Gradient Desent" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -156,7 +156,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -262,7 +262,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -415,7 +415,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,18 +510,18 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>E2</f>
+        <f t="shared" ref="B3:B34" si="0">E2</f>
         <v>4.76</v>
       </c>
       <c r="C3">
         <v>0.1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D51" si="0">2*(B3-3)</f>
+        <f t="shared" ref="D3:D51" si="1">2*(B3-3)</f>
         <v>3.5199999999999996</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E51" si="1">B3-C3*D3</f>
+        <f t="shared" ref="E3:E51" si="2">B3-C3*D3</f>
         <v>4.4079999999999995</v>
       </c>
     </row>
@@ -530,18 +530,18 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f>E3</f>
+        <f t="shared" si="0"/>
         <v>4.4079999999999995</v>
       </c>
       <c r="C4">
         <v>0.1</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8159999999999989</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1263999999999994</v>
       </c>
     </row>
@@ -550,18 +550,18 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>E4</f>
+        <f t="shared" si="0"/>
         <v>4.1263999999999994</v>
       </c>
       <c r="C5">
         <v>0.1</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2527999999999988</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9011199999999997</v>
       </c>
     </row>
@@ -570,18 +570,18 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>E5</f>
+        <f t="shared" si="0"/>
         <v>3.9011199999999997</v>
       </c>
       <c r="C6">
         <v>0.1</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8022399999999994</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7208959999999998</v>
       </c>
     </row>
@@ -590,18 +590,18 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f>E6</f>
+        <f t="shared" si="0"/>
         <v>3.7208959999999998</v>
       </c>
       <c r="C7">
         <v>0.1</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4417919999999995</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5767167999999998</v>
       </c>
     </row>
@@ -610,18 +610,18 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f>E7</f>
+        <f t="shared" si="0"/>
         <v>3.5767167999999998</v>
       </c>
       <c r="C8">
         <v>0.1</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1534335999999996</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.46137344</v>
       </c>
     </row>
@@ -630,18 +630,18 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f>E8</f>
+        <f t="shared" si="0"/>
         <v>3.46137344</v>
       </c>
       <c r="C9">
         <v>0.1</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92274688000000005</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3690987520000002</v>
       </c>
     </row>
@@ -650,18 +650,18 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f>E9</f>
+        <f t="shared" si="0"/>
         <v>3.3690987520000002</v>
       </c>
       <c r="C10">
         <v>0.1</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73819750400000039</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2952790016</v>
       </c>
     </row>
@@ -670,18 +670,18 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f>E10</f>
+        <f t="shared" si="0"/>
         <v>3.2952790016</v>
       </c>
       <c r="C11">
         <v>0.1</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.59055800319999996</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2362232012800001</v>
       </c>
     </row>
@@ -690,18 +690,18 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f>E11</f>
+        <f t="shared" si="0"/>
         <v>3.2362232012800001</v>
       </c>
       <c r="C12">
         <v>0.1</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.47244640256000014</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1889785610240002</v>
       </c>
     </row>
@@ -710,18 +710,18 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f>E12</f>
+        <f t="shared" si="0"/>
         <v>3.1889785610240002</v>
       </c>
       <c r="C13">
         <v>0.1</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37795712204800047</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1511828488192002</v>
       </c>
     </row>
@@ -730,18 +730,18 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f>E13</f>
+        <f t="shared" si="0"/>
         <v>3.1511828488192002</v>
       </c>
       <c r="C14">
         <v>0.1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30236569763840038</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1209462790553602</v>
       </c>
     </row>
@@ -750,18 +750,18 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f>E14</f>
+        <f t="shared" si="0"/>
         <v>3.1209462790553602</v>
       </c>
       <c r="C15">
         <v>0.1</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2418925581107203</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.096757023244288</v>
       </c>
     </row>
@@ -770,18 +770,18 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f>E15</f>
+        <f t="shared" si="0"/>
         <v>3.096757023244288</v>
       </c>
       <c r="C16">
         <v>0.1</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19351404648857606</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0774056185954306</v>
       </c>
     </row>
@@ -790,18 +790,18 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f>E16</f>
+        <f t="shared" si="0"/>
         <v>3.0774056185954306</v>
       </c>
       <c r="C17">
         <v>0.1</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15481123719086121</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0619244948763447</v>
       </c>
     </row>
@@ -810,18 +810,18 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>E17</f>
+        <f t="shared" si="0"/>
         <v>3.0619244948763447</v>
       </c>
       <c r="C18">
         <v>0.1</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12384898975268932</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0495395959010758</v>
       </c>
     </row>
@@ -830,18 +830,18 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>E18</f>
+        <f t="shared" si="0"/>
         <v>3.0495395959010758</v>
       </c>
       <c r="C19">
         <v>0.1</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9079191802151634E-2</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0396316767208607</v>
       </c>
     </row>
@@ -850,18 +850,18 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f>E19</f>
+        <f t="shared" si="0"/>
         <v>3.0396316767208607</v>
       </c>
       <c r="C20">
         <v>0.1</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.9263353441721307E-2</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0317053413766883</v>
       </c>
     </row>
@@ -870,18 +870,18 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f>E20</f>
+        <f t="shared" si="0"/>
         <v>3.0317053413766883</v>
       </c>
       <c r="C21">
         <v>0.1</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.341068275337669E-2</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0253642731013506</v>
       </c>
     </row>
@@ -890,18 +890,18 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f>E21</f>
+        <f t="shared" si="0"/>
         <v>3.0253642731013506</v>
       </c>
       <c r="C22">
         <v>0.1</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0728546202701175E-2</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0202914184810803</v>
       </c>
     </row>
@@ -910,18 +910,18 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f>E22</f>
+        <f t="shared" si="0"/>
         <v>3.0202914184810803</v>
       </c>
       <c r="C23">
         <v>0.1</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0582836962160584E-2</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0162331347848643</v>
       </c>
     </row>
@@ -930,18 +930,18 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f>E23</f>
+        <f t="shared" si="0"/>
         <v>3.0162331347848643</v>
       </c>
       <c r="C24">
         <v>0.1</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2466269569728645E-2</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0129865078278915</v>
       </c>
     </row>
@@ -950,18 +950,18 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f>E24</f>
+        <f t="shared" si="0"/>
         <v>3.0129865078278915</v>
       </c>
       <c r="C25">
         <v>0.1</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5973015655782916E-2</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.010389206262313</v>
       </c>
     </row>
@@ -970,18 +970,18 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f>E25</f>
+        <f t="shared" si="0"/>
         <v>3.010389206262313</v>
       </c>
       <c r="C26">
         <v>0.1</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0778412524625978E-2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0083113650098503</v>
       </c>
     </row>
@@ -990,18 +990,18 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f>E26</f>
+        <f t="shared" si="0"/>
         <v>3.0083113650098503</v>
       </c>
       <c r="C27">
         <v>0.1</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6622730019700604E-2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0066490920078803</v>
       </c>
     </row>
@@ -1010,18 +1010,18 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f>E27</f>
+        <f t="shared" si="0"/>
         <v>3.0066490920078803</v>
       </c>
       <c r="C28">
         <v>0.1</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3298184015760661E-2</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0053192736063044</v>
       </c>
     </row>
@@ -1030,18 +1030,18 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f>E28</f>
+        <f t="shared" si="0"/>
         <v>3.0053192736063044</v>
       </c>
       <c r="C29">
         <v>0.1</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0638547212608707E-2</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0042554188850437</v>
       </c>
     </row>
@@ -1050,18 +1050,18 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f>E29</f>
+        <f t="shared" si="0"/>
         <v>3.0042554188850437</v>
       </c>
       <c r="C30">
         <v>0.1</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5108377700873206E-3</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0034043351080348</v>
       </c>
     </row>
@@ -1070,18 +1070,18 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f>E30</f>
+        <f t="shared" si="0"/>
         <v>3.0034043351080348</v>
       </c>
       <c r="C31">
         <v>0.1</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8086702160696788E-3</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0027234680864279</v>
       </c>
     </row>
@@ -1090,18 +1090,18 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f>E31</f>
+        <f t="shared" si="0"/>
         <v>3.0027234680864279</v>
       </c>
       <c r="C32">
         <v>0.1</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4469361728557431E-3</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0021787744691424</v>
       </c>
     </row>
@@ -1110,18 +1110,18 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f>E32</f>
+        <f t="shared" si="0"/>
         <v>3.0021787744691424</v>
       </c>
       <c r="C33">
         <v>0.1</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3575489382847721E-3</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0017430195753141</v>
       </c>
     </row>
@@ -1130,18 +1130,18 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f>E33</f>
+        <f t="shared" si="0"/>
         <v>3.0017430195753141</v>
       </c>
       <c r="C34">
         <v>0.1</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4860391506281729E-3</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0013944156602514</v>
       </c>
     </row>
@@ -1150,18 +1150,18 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f>E34</f>
+        <f t="shared" ref="B35:B51" si="3">E34</f>
         <v>3.0013944156602514</v>
       </c>
       <c r="C35">
         <v>0.1</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7888313205028936E-3</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0011155325282011</v>
       </c>
     </row>
@@ -1170,18 +1170,18 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f>E35</f>
+        <f t="shared" si="3"/>
         <v>3.0011155325282011</v>
       </c>
       <c r="C36">
         <v>0.1</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2310650564021373E-3</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0008924260225607</v>
       </c>
     </row>
@@ -1190,18 +1190,18 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f>E36</f>
+        <f t="shared" si="3"/>
         <v>3.0008924260225607</v>
       </c>
       <c r="C37">
         <v>0.1</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7848520451213545E-3</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0007139408180485</v>
       </c>
     </row>
@@ -1210,18 +1210,18 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <f>E37</f>
+        <f t="shared" si="3"/>
         <v>3.0007139408180485</v>
       </c>
       <c r="C38">
         <v>0.1</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4278816360970836E-3</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0005711526544387</v>
       </c>
     </row>
@@ -1230,18 +1230,18 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f>E38</f>
+        <f t="shared" si="3"/>
         <v>3.0005711526544387</v>
       </c>
       <c r="C39">
         <v>0.1</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1423053088774893E-3</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0004569221235511</v>
       </c>
     </row>
@@ -1250,18 +1250,18 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f>E39</f>
+        <f t="shared" si="3"/>
         <v>3.0004569221235511</v>
       </c>
       <c r="C40">
         <v>0.1</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1384424710216905E-4</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.000365537698841</v>
       </c>
     </row>
@@ -1270,18 +1270,18 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f>E40</f>
+        <f t="shared" si="3"/>
         <v>3.000365537698841</v>
       </c>
       <c r="C41">
         <v>0.1</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3107539768191288E-4</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0002924301590728</v>
       </c>
     </row>
@@ -1290,18 +1290,18 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f>E41</f>
+        <f t="shared" si="3"/>
         <v>3.0002924301590728</v>
       </c>
       <c r="C42">
         <v>0.1</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.848603181455303E-4</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0002339441272583</v>
       </c>
     </row>
@@ -1310,18 +1310,18 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f>E42</f>
+        <f t="shared" si="3"/>
         <v>3.0002339441272583</v>
       </c>
       <c r="C43">
         <v>0.1</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6788825451660188E-4</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0001871553018065</v>
       </c>
     </row>
@@ -1330,18 +1330,18 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f>E43</f>
+        <f t="shared" si="3"/>
         <v>3.0001871553018065</v>
       </c>
       <c r="C44">
         <v>0.1</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7431060361292623E-4</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.000149724241445</v>
       </c>
     </row>
@@ -1350,18 +1350,18 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f>E44</f>
+        <f t="shared" si="3"/>
         <v>3.000149724241445</v>
       </c>
       <c r="C45">
         <v>0.1</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9944848288998571E-4</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.000119779393156</v>
       </c>
     </row>
@@ -1370,18 +1370,18 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f>E45</f>
+        <f t="shared" si="3"/>
         <v>3.000119779393156</v>
       </c>
       <c r="C46">
         <v>0.1</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3955878631198857E-4</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.000095823514525</v>
       </c>
     </row>
@@ -1390,18 +1390,18 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f>E46</f>
+        <f t="shared" si="3"/>
         <v>3.000095823514525</v>
       </c>
       <c r="C47">
         <v>0.1</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9164702904994613E-4</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0000766588116199</v>
       </c>
     </row>
@@ -1410,18 +1410,18 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f>E47</f>
+        <f t="shared" si="3"/>
         <v>3.0000766588116199</v>
       </c>
       <c r="C48">
         <v>0.1</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5331762323977927E-4</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0000613270492957</v>
       </c>
     </row>
@@ -1430,18 +1430,18 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f>E48</f>
+        <f t="shared" si="3"/>
         <v>3.0000613270492957</v>
       </c>
       <c r="C49">
         <v>0.1</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2265409859146814E-4</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0000490616394364</v>
       </c>
     </row>
@@ -1450,18 +1450,18 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f>E49</f>
+        <f t="shared" si="3"/>
         <v>3.0000490616394364</v>
       </c>
       <c r="C50">
         <v>0.1</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8123278872819242E-5</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0000392493115493</v>
       </c>
     </row>
@@ -1470,18 +1470,18 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f>E50</f>
+        <f t="shared" si="3"/>
         <v>3.0000392493115493</v>
       </c>
       <c r="C51">
         <v>0.1</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8498623098610665E-5</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0000313994492394</v>
       </c>
     </row>
